--- a/medicine/Psychotrope/Côtes-de-bordeaux/Côtes-de-bordeaux.xlsx
+++ b/medicine/Psychotrope/Côtes-de-bordeaux/Côtes-de-bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-bordeaux</t>
+          <t>Côtes-de-bordeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le côtes-de-bordeaux[1] est un vin français d'appellation d'origine contrôlée produit sur plusieurs parties du vignoble de Bordeaux. Cette appellation, créée en 2009, compte en son sein cinq dénominations géographiques éloignées l'une de l'autre :
+Le côtes-de-bordeaux est un vin français d'appellation d'origine contrôlée produit sur plusieurs parties du vignoble de Bordeaux. Cette appellation, créée en 2009, compte en son sein cinq dénominations géographiques éloignées l'une de l'autre :
 blaye-côtes-de-bordeaux (dans le vignoble du Blayais et du Bourgeais, ancienne appellation premières-côtes-de-blaye) ;
 cadillac-côtes-de-bordeaux (dans le vignoble de l'Entre-deux-Mers, ancienne appellation premières-côtes-de-bordeaux rouges) ;
 castillon-côtes-de-bordeaux (dans le vignoble du Libournais, ancienne appellation côtes-de-castillon) ;
 francs-côtes-de-bordeaux (dans le vignoble du Libournais, ancienne appellation bordeaux-côtes-de-francs) ;
-sainte-foy-côtes-de-bordeaux (dans le vignoble de l'Entre-deux-Mers, ancienne appellation sainte-foy-bordeaux)[5].
+sainte-foy-côtes-de-bordeaux (dans le vignoble de l'Entre-deux-Mers, ancienne appellation sainte-foy-bordeaux).
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-bordeaux</t>
+          <t>Côtes-de-bordeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,70 +529,298 @@
           <t>Vignobles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'appellation est créée par le décret du 29 octobre 2009, remplaçant notamment les anciennes appellations premières-côtes-de-blaye, bordeaux-côtes-de-francs et côtes-de-castillon.
-Les surfaces cultivées en 2009[3] sont :
+Les surfaces cultivées en 2009 sont :
 blaye-côtes-de-bordeaux : 6 490 hectares ;
 cadillac-côtes-de-bordeaux : 2 975 ha ;
 castillon-côtes-de-bordeaux : 2 500 ha ;
 francs-côtes-de-bordeaux : 535 ha ;
-sainte-foy-côtes-de-bordeaux : 500 ha[5].
-Aire d'appellation
-Aire de la dénomination blaye-côtes-de-bordeaux
-Anglade, Berson, Blaye, Braud-et-Saint-Louis, Campugnan, Cars, Cartelègue, Cavignac, Cézac, Civrac-de-Blaye, Cubnezais, Donnezac, Etauliers, Eyrans, Fours, Générac, Laruscade, Marcenais, Marcillac, Marsas, Mazion, Plassac, Pleine-Selve, Pugnac (Lafosse), Reignac, Saint-Androny, Saint-Aubin-de-Blaye, Saint-Caprais-de-Blaye, Saint-Christoly-de-Blaye, Saint-Ciers-sur-Gironde, Saint-Genès-de-Blaye, Saint-Girons-d'Aiguevives, Saint-Mariens, Saint-Martin-Lacaussade, Saint-Palais, Saint-Paul, Saint-Savin, Saint-Seurin-de-Cursac, Saint-Vivien-de-Blaye, Saint-Yzan-de-Soudiac et Saugon.
-Aire de la dénomination cadillac-côtes-de-bordeaux
-Bassens, Baurech, Béguey, Bouliac, Cadillac, Cambes, Camblanes-et-Meynac, Capian, Carbon-Blanc, Cardan, Carignan-de-Bordeaux, Cénac, Cenon, Donzac, Floirac, Gabarnac, Haux, Langoiran, Laroque, Latresne, Lestiac-sur-Garonne, Lormont, Loupiac, Monprimblanc, Omet, Paillet, Quinsac, Rions, Saint-Caprais-de-Bordeaux, Sainte-Croix-du-Mont, Sainte-Eulalie, Saint-Germain-de-Grave, Saint-Maixant, Semens, Tabanac, Le Tourne, Verdelais, Villenave-de-Rions et Yvrac.
-Aire de la dénomination castillon-côtes-de-bordeaux
-Belvès-de-Castillon, Castillon-la-Bataille, Gardegan-et-Tourtirac, Les Salles-de-Castillon, Puisseguin (Château de Monbadon), Sainte-Colombe, Saint-Genès-de-Castillon, Saint-Magne-de-Castillon et Saint-Philippe-d'Aiguille.
-Aire de la dénomination francs-côtes-de-bordeaux
-Francs, Saint-Cibard et Tayac.
-Encépagement
-Les vins rouges sont issus des cépages suivants :
+sainte-foy-côtes-de-bordeaux : 500 ha.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Aire de la dénomination blaye-côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anglade, Berson, Blaye, Braud-et-Saint-Louis, Campugnan, Cars, Cartelègue, Cavignac, Cézac, Civrac-de-Blaye, Cubnezais, Donnezac, Etauliers, Eyrans, Fours, Générac, Laruscade, Marcenais, Marcillac, Marsas, Mazion, Plassac, Pleine-Selve, Pugnac (Lafosse), Reignac, Saint-Androny, Saint-Aubin-de-Blaye, Saint-Caprais-de-Blaye, Saint-Christoly-de-Blaye, Saint-Ciers-sur-Gironde, Saint-Genès-de-Blaye, Saint-Girons-d'Aiguevives, Saint-Mariens, Saint-Martin-Lacaussade, Saint-Palais, Saint-Paul, Saint-Savin, Saint-Seurin-de-Cursac, Saint-Vivien-de-Blaye, Saint-Yzan-de-Soudiac et Saugon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Aire de la dénomination cadillac-côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bassens, Baurech, Béguey, Bouliac, Cadillac, Cambes, Camblanes-et-Meynac, Capian, Carbon-Blanc, Cardan, Carignan-de-Bordeaux, Cénac, Cenon, Donzac, Floirac, Gabarnac, Haux, Langoiran, Laroque, Latresne, Lestiac-sur-Garonne, Lormont, Loupiac, Monprimblanc, Omet, Paillet, Quinsac, Rions, Saint-Caprais-de-Bordeaux, Sainte-Croix-du-Mont, Sainte-Eulalie, Saint-Germain-de-Grave, Saint-Maixant, Semens, Tabanac, Le Tourne, Verdelais, Villenave-de-Rions et Yvrac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Aire de la dénomination castillon-côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belvès-de-Castillon, Castillon-la-Bataille, Gardegan-et-Tourtirac, Les Salles-de-Castillon, Puisseguin (Château de Monbadon), Sainte-Colombe, Saint-Genès-de-Castillon, Saint-Magne-de-Castillon et Saint-Philippe-d'Aiguille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Aire de la dénomination francs-côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francs, Saint-Cibard et Tayac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins rouges sont issus des cépages suivants :
 cépages principaux : cabernet-sauvignon N, cabernet franc N et merlot N ;
 cépages accessoires : carmenère N, cot N (ou malbec) et petit verdot N.
 Les vins blancs sont issus des cépages suivants :
 cépages principaux : sauvignon B, sauvignon gris G, sémillon B et muscadelle B ;
 cépages accessoires : colombard B et ugni blanc B.
-Rendements
-60 à 72 hl/ha pour les blancs (blaye-côtes-de-bordeaux blancs et francs-côtes-de-bordeaux blancs) ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignobles</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>60 à 72 hl/ha pour les blancs (blaye-côtes-de-bordeaux blancs et francs-côtes-de-bordeaux blancs) ;
 53 à 65 hl/ha pour les côtes-de-bordeaux rouges ;
 50 à 65 hl/ha pour les dénominations rouges (blaye-côtes-de-bordeaux, cadillac-côtes-de-bordeaux, castillon-côtes-de-bordeaux et francs-côtes-de-bordeaux rouges) ;
 37 à 40 hl/ha pour les liquoreux (francs-côtes-de-bordeaux liquoreux).</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C%C3%B4tes-de-bordeaux</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Vins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">blaye-côtes-de-bordeaux : 335 000 hectolitres en 2009 ;
 cadillac-côtes-de-bordeaux : 112 425 hl ;
 castillon-côtes-de-bordeaux : 160 000 hl ;
 francs-côtes-de-bordeaux : 28 125 hl ;
-sainte-foy-bordeaux : 10 000 hl[5].
+sainte-foy-bordeaux : 10 000 hl.
 Total : 645 550 hl.
 </t>
         </is>
